--- a/data/summary_22071910.xlsx
+++ b/data/summary_22071910.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1056 +406,1185 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>22.50497237569061</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>992.5060773480664</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.5010925619834711</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4591404958677686</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3.262645160794019</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.293194247254278e-005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22.00276243093923</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.85966850828729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>22.16519337016575</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>992.6044198895028</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5531595041322314</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.5680057851239669</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.339318481906223</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.49424607691735e-018</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.7585635359116</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.870165745856355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>22.05635359116022</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>992.6939226519337</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4644900826446281</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4869462809917355</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.759833846971286</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.494931860529816e-018</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21.69337016574585</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12.87292817679558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>21.9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>992.9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-8.715872263241306e-017</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.300000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>21.98508287292818</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>992.9149171270718</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.4211165289256199</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3980280991735537</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.688454263812562</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.495625802863741e-018</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21.36629834254144</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.36132596685083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>22.11104972375691</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>993.021546961326</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3871727272727273</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3688925619834711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.324406746573282</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.495148176420626e-018</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9.335911602209945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>21.99889502762431</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>993.1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4285561983471075</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4011826446280992</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.761500569176595</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.495834577947941e-018</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21.17955801104973</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6.776795580110497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>21.96666666666667</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>993.2333333333334</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8.617103813697268e-017</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21.1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>22.04585635359116</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>993.2392265193371</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3735884297520661</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3816661157024793</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.325429991946936</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.495806249803287e-018</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21.22044198895028</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.895580110497238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>21.96353591160221</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>993.2276243093922</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2927099173553719</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2862809917355372</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.889917101723187</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.496206083431751e-018</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>21.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>21.90331491712707</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>993.3110497237568</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3640082644628099</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3510685950413223</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.254012156319259</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9.08047578194414e-005</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>21.3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.615469613259669</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>22.07182320441989</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>993.3060773480663</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.5269429752066116</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.5443090909090909</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.197400045453989</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.495775330671327e-018</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>21.3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7.032596685082873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>21.98674033149171</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>993.3878453038674</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.4119586776859504</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3394636363636364</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.835109921589949</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1.039196795617551e-005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>21.3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>8.921546961325968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>22.06574585635359</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>993.4038674033149</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.3715487603305785</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.368303305785124</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.252981848730662</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.991906776596886e-018</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>21.3</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11.17513812154696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>21.98461538461539</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>993.3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-7.626743000947154e-017</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>21.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>11.92307692307692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>22.1828729281768</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>993.3270718232044</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.5089173553719009</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.423996694214876</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.414191857192714</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.990488826154206e-018</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>21.5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12.1707182320442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>22.51325966850829</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>993.3005524861878</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.5528231404958678</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.5382694214876033</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3.482842936410993</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.98706686836166e-018</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>21.5</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>11.88176795580111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>22.65138121546961</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>993.2022099447514</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.6686644628099173</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.5974892561983471</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4.42360711364583</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.0001397600447895075</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>11.27624309392265</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>22.67237569060773</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>993.2237569060774</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3704719008264463</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3243793388429752</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.465495492816652</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.985229133183992e-018</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>21.6878453038674</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6.240883977900553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>22.9060773480663</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>993.3353591160221</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4413876033057851</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.4102438016528925</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.826152319452587</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2.983207451894471e-018</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21.7</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2.45524861878453</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>23.03922651933702</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>993.4132596685083</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4582909090909091</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.3403041322314049</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3.187295400022341</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.000141583656189764</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>21.7</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.33756906077348</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>23.6</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>993.0233333333333</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0003448244273367303</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>22.6</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.233333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>23.75082872928177</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>993.0138121546961</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.4018859504132231</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.3429495867768595</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.672723429068499</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4.044035800227752e-005</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>22.71049723756906</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.422099447513812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>23.90883977900553</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>993.0756906077348</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.4393033057851239</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.4510363636363636</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.671467499068867</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0001283778881958419</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>22.64088397790055</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6.097790055248619</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>23.753591160221</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>993.1756906077349</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.3939198347107438</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.358603305785124</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.528640502294143</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8.421150352550451e-005</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>22.60662983425415</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5.072375690607735</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>23.76353591160221</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>993.2077348066299</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.3176041322314049</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.3161743801652893</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.950663097096696</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7.187029598492776e-005</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>22.6</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4.337016574585635</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>23.7</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>993.21</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>22.7</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>23.84088397790055</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>993.2790055248619</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.278403305785124</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2584123966942149</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.805828472865608</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7.735208911484564e-005</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>22.8</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>4.587292817679558</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>23.82486187845304</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>993.3508287292817</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.3406132231404959</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.3364140495867768</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.095025578807209</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001406833405880684</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>22.6</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>7.816574585635359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>23.91546961325967</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>993.3408839779005</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.2939661157024793</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.2806074380165289</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.877706808233696</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>9.551383785143629e-005</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>22.4</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.207182320441989</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>24.00276243093923</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>993.4093922651933</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.3297206611570248</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.298102479338843</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.166097372558451</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.0001121785406847428</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>22.4</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.919337016574586</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>24.15027624309392</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>993.4950276243094</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.2988834710743802</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.2445685950413223</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2.020861446747537</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1.098357222416445e-005</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>22.4</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.734254143646409</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>24.32154696132597</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>993.5176795580111</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.2093636363636364</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.2048512396694215</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.298406463938641</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>9.092755825629662e-005</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>22.4</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>3.526519337016575</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>24.4</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>993.6237569060774</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.4548876033057852</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.5488785123966942</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.38003799481023</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>6.270503802194313e-005</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>22.4121546961326</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>5.683977900552486</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>24.4</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>993.6285714285715</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-4.006019757870895e-016</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>22.6</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>24.55524861878453</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>993.6093922651934</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.2026280991735537</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.1994413223140496</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.297506450988066</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>9.176006845212836e-006</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>22.6</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4.275138121546961</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>24.75138121546961</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>993.5088397790055</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.3853190082644628</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.3583388429752066</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.448983255369662</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.000119110639911107</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>22.6</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>6.272375690607735</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>25.19834254143646</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>993.4580110497237</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.5068892561983471</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.4347421487603306</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3.380112045626614</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.332292042456129e-017</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>22.8</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.70828729281768</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>25.41270718232044</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>993.4160220994475</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.3750553719008264</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.354400826446281</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2.371465086812185</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.000104515103233529</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>22.87182320441989</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4.598342541436464</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>25.46298342541437</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>993.3889502762431</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.3117190082644628</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.304295867768595</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2.011758422383347</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1.331018609500862e-017</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>23.15082872928177</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2.20828729281768</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>25.84347826086956</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>993.3869565217391</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3.195202483501142e-017</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>23.5</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4.878260869565217</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>26.61988950276243</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>993.3944751381215</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.3895413223140496</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.3599404958677686</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2.50500209228394</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>9.446638700572209e-005</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>23.77734806629834</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4.569613259668508</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>27.10220994475138</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>993.3972375690607</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.4868793388429752</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.5062363636363636</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2.9297229892489</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.0002059100878373885</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>24.36408839779006</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.6994475138121546</v>
       </c>
     </row>
